--- a/nsfa/lm_results.xlsx
+++ b/nsfa/lm_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26024"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="20" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -941,7 +941,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -949,7 +949,7 @@
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="22.83203125" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="5" max="5" width="22.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
     <col min="7" max="7" width="28.83203125" customWidth="1"/>
     <col min="9" max="9" width="22.1640625" customWidth="1"/>
